--- a/L3StudentsData.xlsx
+++ b/L3StudentsData.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>Name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>745487547</t>
   </si>
   <si>
-    <t>undefined</t>
+    <t>Not Attempted</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <t>pratik12aga@gmail.com</t>
@@ -279,10 +282,10 @@
         <v>6</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -290,10 +293,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>6</v>
@@ -316,13 +319,13 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>6</v>
@@ -345,13 +348,13 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>6</v>
@@ -374,13 +377,13 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>6</v>
@@ -403,13 +406,13 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>6</v>
@@ -432,13 +435,13 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>6</v>
@@ -461,13 +464,13 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>6</v>
@@ -490,13 +493,13 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>6</v>
@@ -519,13 +522,13 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>6</v>
@@ -548,13 +551,13 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>6</v>
@@ -577,13 +580,13 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>6</v>
@@ -606,13 +609,13 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>6</v>
@@ -635,13 +638,13 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>6</v>
@@ -664,13 +667,13 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>6</v>
@@ -693,13 +696,13 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>6</v>
@@ -722,13 +725,13 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>6</v>
@@ -751,13 +754,13 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>6</v>
@@ -780,13 +783,13 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>6</v>
@@ -809,13 +812,13 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>6</v>
